--- a/config_9.21/permission_server_config.xlsx
+++ b/config_9.21/permission_server_config.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5627" uniqueCount="2123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7311" uniqueCount="2123">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -15648,10 +15648,10 @@
   <dimension ref="A1:O415"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G394" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D364" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L415" sqref="L415"/>
+      <selection pane="bottomRight" activeCell="E383" sqref="E383:F383"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -28215,7 +28215,7 @@
       <c r="E372" s="71"/>
       <c r="F372" s="71"/>
       <c r="G372" s="71">
-        <v>393</v>
+        <v>510</v>
       </c>
       <c r="H372" s="95" t="b">
         <v>1</v>
